--- a/_4.python/__code/高效率Python自動化工作術/chap8/2022_12.xlsx
+++ b/_4.python/__code/高效率Python自動化工作術/chap8/2022_12.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,34 +25,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="24"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
-      <sz val="24"/>
-    </font>
-    <font>
-      <color rgb="000000FF"/>
-      <sz val="24"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFAAAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AAAAFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,20 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -453,160 +420,151 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2022年12月</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>日</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>一</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>二</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>三</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>四</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>五</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>六</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="E3" s="1" t="n">
+    <row r="3">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="6" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="6" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" t="n">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="6" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" t="n">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" t="n">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="6" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" t="n">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" t="n">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" t="n">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" t="n">
         <v>31</v>
       </c>
     </row>
